--- a/state_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
+++ b/state_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U233"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,24 +570,24 @@
         <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>2.97617192728165</v>
+        <v>3.00132278772483</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>7.58697</v>
+        <v>6.64179</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.76703</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>4.775</v>
+        <v>5.55</v>
       </c>
       <c r="N2" t="n">
-        <v>6.21</v>
+        <v>6.29237</v>
       </c>
       <c r="O2" t="n">
         <v>1785783</v>
@@ -651,7 +651,7 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0142412827875098</v>
+        <v>0.01424192765382</v>
       </c>
       <c r="H3" t="n">
         <v>0.141</v>
@@ -732,7 +732,7 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0142412827875098</v>
+        <v>0.01424192765382</v>
       </c>
       <c r="H4" t="n">
         <v>0.141</v>
@@ -1153,7 +1153,7 @@
         <v>0.00403</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0054941921897362</v>
+        <v>0.0054947043305384</v>
       </c>
       <c r="H9" t="n">
         <v>0.0385838463404206</v>
@@ -1234,7 +1234,7 @@
         <v>0.00403</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0054941921897362</v>
+        <v>0.0054947043305384</v>
       </c>
       <c r="H10" t="n">
         <v>0.0385838463404206</v>
@@ -1311,7 +1311,7 @@
         <v>0.307</v>
       </c>
       <c r="G11" t="n">
-        <v>0.304542857142857</v>
+        <v>0.3045</v>
       </c>
       <c r="H11" t="n">
         <v>0.588</v>
@@ -1322,7 +1322,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.258</v>
+        <v>0.25825</v>
       </c>
       <c r="M11" t="n">
         <v>0.43695</v>
@@ -1388,7 +1388,7 @@
         <v>0.307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.304542857142857</v>
+        <v>0.3045</v>
       </c>
       <c r="H12" t="n">
         <v>0.588</v>
@@ -1399,7 +1399,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.258</v>
+        <v>0.25825</v>
       </c>
       <c r="M12" t="n">
         <v>0.43695</v>
@@ -1469,24 +1469,24 @@
         <v>2.226</v>
       </c>
       <c r="G13" t="n">
-        <v>3.21973096767473</v>
+        <v>3.07364518301128</v>
       </c>
       <c r="H13" t="n">
-        <v>10.0587384448182</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>9.65146</v>
+        <v>7.99065</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.06703</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
         <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>8.42887</v>
+        <v>6.61138</v>
       </c>
       <c r="O13" t="n">
         <v>1785783</v>
@@ -1550,7 +1550,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0086116008660286</v>
+        <v>0.008613342513318601</v>
       </c>
       <c r="H14" t="n">
         <v>0.017</v>
@@ -1631,7 +1631,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0086116008660286</v>
+        <v>0.008613342513318601</v>
       </c>
       <c r="H15" t="n">
         <v>0.017</v>
@@ -2052,7 +2052,7 @@
         <v>0.00419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0062248075529058</v>
+        <v>0.0062252825141765</v>
       </c>
       <c r="H20" t="n">
         <v>0.035</v>
@@ -2133,7 +2133,7 @@
         <v>0.00419</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0062248075529058</v>
+        <v>0.0062252825141765</v>
       </c>
       <c r="H21" t="n">
         <v>0.035</v>
@@ -2210,7 +2210,7 @@
         <v>0.34</v>
       </c>
       <c r="G22" t="n">
-        <v>0.347428571428571</v>
+        <v>0.347385714285714</v>
       </c>
       <c r="H22" t="n">
         <v>0.6870000000000001</v>
@@ -2221,7 +2221,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.258</v>
+        <v>0.25825</v>
       </c>
       <c r="M22" t="n">
         <v>0.46795</v>
@@ -2287,7 +2287,7 @@
         <v>0.34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.347428571428571</v>
+        <v>0.347385714285714</v>
       </c>
       <c r="H23" t="n">
         <v>0.6870000000000001</v>
@@ -2298,7 +2298,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.258</v>
+        <v>0.25825</v>
       </c>
       <c r="M23" t="n">
         <v>0.46795</v>
@@ -2368,24 +2368,24 @@
         <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.35992951421042</v>
+        <v>3.18274689448797</v>
       </c>
       <c r="H24" t="n">
-        <v>10.0587384448182</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>9.457179999999999</v>
+        <v>7.16736</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>4.16703</v>
+        <v>4.35</v>
       </c>
       <c r="M24" t="n">
         <v>6</v>
       </c>
       <c r="N24" t="n">
-        <v>8.54684</v>
+        <v>6.4916</v>
       </c>
       <c r="O24" t="n">
         <v>1785783</v>
@@ -2449,7 +2449,7 @@
         <v>0.008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0084842928340997</v>
+        <v>0.0084859281330234</v>
       </c>
       <c r="H25" t="n">
         <v>0.019</v>
@@ -2530,7 +2530,7 @@
         <v>0.008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0084842928340997</v>
+        <v>0.0084859281330234</v>
       </c>
       <c r="H26" t="n">
         <v>0.019</v>
@@ -2951,7 +2951,7 @@
         <v>0.00424</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0070227544203325</v>
+        <v>0.0070231081148958</v>
       </c>
       <c r="H31" t="n">
         <v>0.035</v>
@@ -3032,7 +3032,7 @@
         <v>0.00424</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0070227544203325</v>
+        <v>0.0070231081148958</v>
       </c>
       <c r="H32" t="n">
         <v>0.035</v>
@@ -3271,7 +3271,7 @@
         <v>0.343</v>
       </c>
       <c r="G35" t="n">
-        <v>0.355765957446809</v>
+        <v>0.355734042553192</v>
       </c>
       <c r="H35" t="n">
         <v>1.104</v>
@@ -3282,7 +3282,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.276</v>
+        <v>0.27625</v>
       </c>
       <c r="M35" t="n">
         <v>0.46104</v>
@@ -3348,7 +3348,7 @@
         <v>0.343</v>
       </c>
       <c r="G36" t="n">
-        <v>0.355765957446809</v>
+        <v>0.355734042553192</v>
       </c>
       <c r="H36" t="n">
         <v>1.104</v>
@@ -3359,7 +3359,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.276</v>
+        <v>0.27625</v>
       </c>
       <c r="M36" t="n">
         <v>0.46104</v>
@@ -3429,24 +3429,24 @@
         <v>3.5</v>
       </c>
       <c r="G37" t="n">
-        <v>3.61478014896834</v>
+        <v>3.46647438117225</v>
       </c>
       <c r="H37" t="n">
-        <v>10.0587384448182</v>
+        <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>9.108639999999999</v>
+        <v>6.69179</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="M37" t="n">
         <v>6</v>
       </c>
       <c r="N37" t="n">
-        <v>8.074949999999999</v>
+        <v>6.42443</v>
       </c>
       <c r="O37" t="n">
         <v>1785783</v>
@@ -3510,7 +3510,7 @@
         <v>0.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008301046833943801</v>
+        <v>0.0083023495296966</v>
       </c>
       <c r="H38" t="n">
         <v>0.019</v>
@@ -3591,7 +3591,7 @@
         <v>0.008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.008301046833943801</v>
+        <v>0.0083023495296966</v>
       </c>
       <c r="H39" t="n">
         <v>0.019</v>
@@ -4012,7 +4012,7 @@
         <v>0.00387</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0059174412328355</v>
+        <v>0.0059177197780356</v>
       </c>
       <c r="H44" t="n">
         <v>0.035</v>
@@ -4093,7 +4093,7 @@
         <v>0.00387</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0059174412328355</v>
+        <v>0.0059177197780356</v>
       </c>
       <c r="H45" t="n">
         <v>0.035</v>
@@ -4332,7 +4332,7 @@
         <v>0.329</v>
       </c>
       <c r="G48" t="n">
-        <v>0.345576271186441</v>
+        <v>0.345535593220339</v>
       </c>
       <c r="H48" t="n">
         <v>1.104</v>
@@ -4409,7 +4409,7 @@
         <v>0.329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.345576271186441</v>
+        <v>0.345535593220339</v>
       </c>
       <c r="H49" t="n">
         <v>1.104</v>
@@ -4640,7 +4640,7 @@
         <v>0.015</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0284806570177677</v>
+        <v>0.02848011806255</v>
       </c>
       <c r="H52" t="n">
         <v>0.452</v>
@@ -4717,7 +4717,7 @@
         <v>0.015</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0284806570177677</v>
+        <v>0.02848011806255</v>
       </c>
       <c r="H53" t="n">
         <v>0.452</v>
@@ -4798,24 +4798,24 @@
         <v>4.5</v>
       </c>
       <c r="G54" t="n">
-        <v>4.23193091027459</v>
+        <v>4.1203111933008</v>
       </c>
       <c r="H54" t="n">
-        <v>10.0587384448182</v>
+        <v>9.142780103915729</v>
       </c>
       <c r="I54" t="n">
-        <v>8.51789</v>
+        <v>8.31545</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
-        <v>6.86852</v>
+        <v>6.46972</v>
       </c>
       <c r="N54" t="n">
-        <v>8.0169</v>
+        <v>7.72108</v>
       </c>
       <c r="O54" t="n">
         <v>1785783</v>
@@ -4879,7 +4879,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008029362720044699</v>
+        <v>0.008030643704201699</v>
       </c>
       <c r="H55" t="n">
         <v>0.019</v>
@@ -4960,7 +4960,7 @@
         <v>0.008</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008029362720044699</v>
+        <v>0.008030643704201699</v>
       </c>
       <c r="H56" t="n">
         <v>0.019</v>
@@ -5381,7 +5381,7 @@
         <v>0.00318</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0062165868949512</v>
+        <v>0.0062167334866862</v>
       </c>
       <c r="H61" t="n">
         <v>0.047500270300084</v>
@@ -5462,7 +5462,7 @@
         <v>0.00318</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0062165868949512</v>
+        <v>0.0062167334866862</v>
       </c>
       <c r="H62" t="n">
         <v>0.047500270300084</v>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.322</v>
+        <v>0.32175</v>
       </c>
       <c r="G65" t="n">
-        <v>0.3478</v>
+        <v>0.34776</v>
       </c>
       <c r="H65" t="n">
         <v>1.104</v>
@@ -5712,13 +5712,13 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.2385</v>
+        <v>0.2382</v>
       </c>
       <c r="M65" t="n">
-        <v>0.4622</v>
+        <v>0.46241</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6048</v>
+        <v>0.60515</v>
       </c>
       <c r="O65" t="n">
         <v>1785783</v>
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.322</v>
+        <v>0.32175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3478</v>
+        <v>0.34776</v>
       </c>
       <c r="H66" t="n">
         <v>1.104</v>
@@ -5789,13 +5789,13 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.2385</v>
+        <v>0.2382</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4622</v>
+        <v>0.46241</v>
       </c>
       <c r="N66" t="n">
-        <v>0.6048</v>
+        <v>0.60515</v>
       </c>
       <c r="O66" t="n">
         <v>1785783</v>
@@ -6009,7 +6009,7 @@
         <v>0.014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0265958127341382</v>
+        <v>0.0265952827615075</v>
       </c>
       <c r="H69" t="n">
         <v>0.452</v>
@@ -6086,7 +6086,7 @@
         <v>0.014</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0265958127341382</v>
+        <v>0.0265952827615075</v>
       </c>
       <c r="H70" t="n">
         <v>0.452</v>
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G71" t="n">
-        <v>5.27484641579391</v>
+        <v>5.13892391349147</v>
       </c>
       <c r="H71" t="n">
         <v>11</v>
@@ -6178,10 +6178,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>6.05636</v>
+        <v>6.175</v>
       </c>
       <c r="M71" t="n">
-        <v>8.605829999999999</v>
+        <v>8.4023</v>
       </c>
       <c r="N71" t="n">
         <v>10.1</v>
@@ -6248,7 +6248,7 @@
         <v>0.0075</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0076052810939974</v>
+        <v>0.00760618590614</v>
       </c>
       <c r="H72" t="n">
         <v>0.019</v>
@@ -6329,7 +6329,7 @@
         <v>0.0075</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0076052810939974</v>
+        <v>0.00760618590614</v>
       </c>
       <c r="H73" t="n">
         <v>0.019</v>
@@ -6750,7 +6750,7 @@
         <v>0.00222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0060679573305732</v>
+        <v>0.0060678044285332</v>
       </c>
       <c r="H78" t="n">
         <v>0.047500270300084</v>
@@ -6831,7 +6831,7 @@
         <v>0.00222</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0060679573305732</v>
+        <v>0.0060678044285332</v>
       </c>
       <c r="H79" t="n">
         <v>0.047500270300084</v>
@@ -7067,21 +7067,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.304</v>
+        <v>0.3039</v>
       </c>
       <c r="G82" t="n">
-        <v>0.360416666666667</v>
+        <v>0.360391666666667</v>
       </c>
       <c r="H82" t="n">
         <v>1.104</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8575</v>
+        <v>0.8573499999999999</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.214</v>
+        <v>0.21405</v>
       </c>
       <c r="M82" t="n">
         <v>0.5381</v>
@@ -7144,21 +7144,21 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.304</v>
+        <v>0.3039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.360416666666667</v>
+        <v>0.360391666666667</v>
       </c>
       <c r="H83" t="n">
         <v>1.104</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8575</v>
+        <v>0.8573499999999999</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.214</v>
+        <v>0.21405</v>
       </c>
       <c r="M83" t="n">
         <v>0.5381</v>
@@ -7378,7 +7378,7 @@
         <v>0.0125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0251458127341382</v>
+        <v>0.0251452827615075</v>
       </c>
       <c r="H86" t="n">
         <v>0.452</v>
@@ -7455,7 +7455,7 @@
         <v>0.0125</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0251458127341382</v>
+        <v>0.0251452827615075</v>
       </c>
       <c r="H87" t="n">
         <v>0.452</v>
@@ -7613,7 +7613,7 @@
         <v>5.15</v>
       </c>
       <c r="G89" t="n">
-        <v>5.14055508751875</v>
+        <v>5.12449823679095</v>
       </c>
       <c r="H89" t="n">
         <v>11</v>
@@ -7627,7 +7627,7 @@
         <v>5.8</v>
       </c>
       <c r="M89" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="N89" t="n">
         <v>10.1</v>
@@ -7694,7 +7694,7 @@
         <v>0.0075</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0076276275147585</v>
+        <v>0.0076283150043359</v>
       </c>
       <c r="H90" t="n">
         <v>0.019</v>
@@ -7775,7 +7775,7 @@
         <v>0.0075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0076276275147585</v>
+        <v>0.0076283150043359</v>
       </c>
       <c r="H91" t="n">
         <v>0.019</v>
@@ -8270,10 +8270,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00104</v>
+        <v>0.00103</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0042408475967128</v>
+        <v>0.0042396229016432</v>
       </c>
       <c r="H97" t="n">
         <v>0.047500270300084</v>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00104</v>
+        <v>0.00103</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0042408475967128</v>
+        <v>0.0042396229016432</v>
       </c>
       <c r="H98" t="n">
         <v>0.047500270300084</v>
@@ -8670,7 +8670,7 @@
         <v>0.26</v>
       </c>
       <c r="G102" t="n">
-        <v>0.356016666666667</v>
+        <v>0.355991666666667</v>
       </c>
       <c r="H102" t="n">
         <v>1.104</v>
@@ -8681,13 +8681,13 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.2195</v>
+        <v>0.21945</v>
       </c>
       <c r="M102" t="n">
-        <v>0.5034</v>
+        <v>0.50326</v>
       </c>
       <c r="N102" t="n">
-        <v>0.7644</v>
+        <v>0.76434</v>
       </c>
       <c r="O102" t="n">
         <v>1785783</v>
@@ -8747,7 +8747,7 @@
         <v>0.26</v>
       </c>
       <c r="G103" t="n">
-        <v>0.356016666666667</v>
+        <v>0.355991666666667</v>
       </c>
       <c r="H103" t="n">
         <v>1.104</v>
@@ -8758,13 +8758,13 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.2195</v>
+        <v>0.21945</v>
       </c>
       <c r="M103" t="n">
-        <v>0.5034</v>
+        <v>0.50326</v>
       </c>
       <c r="N103" t="n">
-        <v>0.7644</v>
+        <v>0.76434</v>
       </c>
       <c r="O103" t="n">
         <v>1785783</v>
@@ -8978,7 +8978,7 @@
         <v>0.013</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0326298892038629</v>
+        <v>0.0326291404111055</v>
       </c>
       <c r="H106" t="n">
         <v>0.5669999999999999</v>
@@ -9055,7 +9055,7 @@
         <v>0.013</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0326298892038629</v>
+        <v>0.0326291404111055</v>
       </c>
       <c r="H107" t="n">
         <v>0.5669999999999999</v>
@@ -9294,7 +9294,7 @@
         <v>4.375</v>
       </c>
       <c r="G110" t="n">
-        <v>4.73483020210169</v>
+        <v>4.77597765985967</v>
       </c>
       <c r="H110" t="n">
         <v>11</v>
@@ -9308,7 +9308,7 @@
         <v>4.75</v>
       </c>
       <c r="M110" t="n">
-        <v>8.019550000000001</v>
+        <v>8.6</v>
       </c>
       <c r="N110" t="n">
         <v>10.1</v>
@@ -9375,7 +9375,7 @@
         <v>0.008</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0133216986332305</v>
+        <v>0.0133221210995701</v>
       </c>
       <c r="H111" t="n">
         <v>0.33</v>
@@ -9456,7 +9456,7 @@
         <v>0.008</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0133216986332305</v>
+        <v>0.0133221210995701</v>
       </c>
       <c r="H112" t="n">
         <v>0.33</v>
@@ -9954,7 +9954,7 @@
         <v>0.00101</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0027487149652737</v>
+        <v>0.0027456219028733</v>
       </c>
       <c r="H118" t="n">
         <v>0.047500270300084</v>
@@ -9968,7 +9968,7 @@
         <v>0.00069</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0021</v>
+        <v>0.00209</v>
       </c>
       <c r="N118" t="n">
         <v>0.0069</v>
@@ -10035,7 +10035,7 @@
         <v>0.00101</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0027487149652737</v>
+        <v>0.0027456219028733</v>
       </c>
       <c r="H119" t="n">
         <v>0.047500270300084</v>
@@ -10049,7 +10049,7 @@
         <v>0.00069</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0021</v>
+        <v>0.00209</v>
       </c>
       <c r="N119" t="n">
         <v>0.0069</v>
@@ -10351,7 +10351,7 @@
         <v>0.275</v>
       </c>
       <c r="G123" t="n">
-        <v>0.364833333333333</v>
+        <v>0.364808333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0.955</v>
@@ -10362,13 +10362,13 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.2085</v>
+        <v>0.20855</v>
       </c>
       <c r="M123" t="n">
         <v>0.5953000000000001</v>
       </c>
       <c r="N123" t="n">
-        <v>0.7812</v>
+        <v>0.78099</v>
       </c>
       <c r="O123" t="n">
         <v>1785783</v>
@@ -10428,7 +10428,7 @@
         <v>0.275</v>
       </c>
       <c r="G124" t="n">
-        <v>0.364833333333333</v>
+        <v>0.364808333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0.955</v>
@@ -10439,13 +10439,13 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.2085</v>
+        <v>0.20855</v>
       </c>
       <c r="M124" t="n">
         <v>0.5953000000000001</v>
       </c>
       <c r="N124" t="n">
-        <v>0.7812</v>
+        <v>0.78099</v>
       </c>
       <c r="O124" t="n">
         <v>1785783</v>
@@ -10975,7 +10975,7 @@
         <v>3.6</v>
       </c>
       <c r="G131" t="n">
-        <v>4.44548903944797</v>
+        <v>4.48858465923978</v>
       </c>
       <c r="H131" t="n">
         <v>11</v>
@@ -10989,7 +10989,7 @@
         <v>4.185</v>
       </c>
       <c r="M131" t="n">
-        <v>7.95629</v>
+        <v>8.532</v>
       </c>
       <c r="N131" t="n">
         <v>10.1</v>
@@ -11056,7 +11056,7 @@
         <v>0.008</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0133035683119187</v>
+        <v>0.0133041483993038</v>
       </c>
       <c r="H132" t="n">
         <v>0.33</v>
@@ -11137,7 +11137,7 @@
         <v>0.008</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0133035683119187</v>
+        <v>0.0133041483993038</v>
       </c>
       <c r="H133" t="n">
         <v>0.33</v>
@@ -11218,7 +11218,7 @@
         <v>78.5</v>
       </c>
       <c r="G134" t="n">
-        <v>312.279860852959</v>
+        <v>312.280506639738</v>
       </c>
       <c r="H134" t="n">
         <v>9700</v>
@@ -11303,7 +11303,7 @@
         <v>78.5</v>
       </c>
       <c r="G135" t="n">
-        <v>312.279860852959</v>
+        <v>312.280506639738</v>
       </c>
       <c r="H135" t="n">
         <v>9700</v>
@@ -11388,7 +11388,7 @@
         <v>78.5</v>
       </c>
       <c r="G136" t="n">
-        <v>312.279860852959</v>
+        <v>312.280506639738</v>
       </c>
       <c r="H136" t="n">
         <v>9700</v>
@@ -11473,7 +11473,7 @@
         <v>78.5</v>
       </c>
       <c r="G137" t="n">
-        <v>312.279860852959</v>
+        <v>312.280506639738</v>
       </c>
       <c r="H137" t="n">
         <v>9700</v>
@@ -11635,7 +11635,7 @@
         <v>0.00127</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0031345059463377</v>
+        <v>0.0031263919769973</v>
       </c>
       <c r="H139" t="n">
         <v>0.047500270300084</v>
@@ -11646,10 +11646,10 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M139" t="n">
-        <v>0.00354</v>
+        <v>0.00351</v>
       </c>
       <c r="N139" t="n">
         <v>0.0071</v>
@@ -11716,7 +11716,7 @@
         <v>0.00127</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0031345059463377</v>
+        <v>0.0031263919769973</v>
       </c>
       <c r="H140" t="n">
         <v>0.047500270300084</v>
@@ -11727,10 +11727,10 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M140" t="n">
-        <v>0.00354</v>
+        <v>0.00351</v>
       </c>
       <c r="N140" t="n">
         <v>0.0071</v>
@@ -12032,7 +12032,7 @@
         <v>0.31</v>
       </c>
       <c r="G144" t="n">
-        <v>0.39295</v>
+        <v>0.39294</v>
       </c>
       <c r="H144" t="n">
         <v>0.955</v>
@@ -12043,13 +12043,13 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.2085</v>
+        <v>0.20855</v>
       </c>
       <c r="M144" t="n">
         <v>0.624</v>
       </c>
       <c r="N144" t="n">
-        <v>0.8681</v>
+        <v>0.8680099999999999</v>
       </c>
       <c r="O144" t="n">
         <v>1785783</v>
@@ -12109,7 +12109,7 @@
         <v>0.31</v>
       </c>
       <c r="G145" t="n">
-        <v>0.39295</v>
+        <v>0.39294</v>
       </c>
       <c r="H145" t="n">
         <v>0.955</v>
@@ -12120,13 +12120,13 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.2085</v>
+        <v>0.20855</v>
       </c>
       <c r="M145" t="n">
         <v>0.624</v>
       </c>
       <c r="N145" t="n">
-        <v>0.8681</v>
+        <v>0.8680099999999999</v>
       </c>
       <c r="O145" t="n">
         <v>1785783</v>
@@ -12737,7 +12737,7 @@
         <v>0.008</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0134714180304383</v>
+        <v>0.0134721198470049</v>
       </c>
       <c r="H153" t="n">
         <v>0.33</v>
@@ -12818,7 +12818,7 @@
         <v>0.008</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0134714180304383</v>
+        <v>0.0134721198470049</v>
       </c>
       <c r="H154" t="n">
         <v>0.33</v>
@@ -12899,7 +12899,7 @@
         <v>84</v>
       </c>
       <c r="G155" t="n">
-        <v>323.313194186293</v>
+        <v>323.313839973072</v>
       </c>
       <c r="H155" t="n">
         <v>9700</v>
@@ -12984,7 +12984,7 @@
         <v>84</v>
       </c>
       <c r="G156" t="n">
-        <v>323.313194186293</v>
+        <v>323.313839973072</v>
       </c>
       <c r="H156" t="n">
         <v>9700</v>
@@ -13069,7 +13069,7 @@
         <v>84</v>
       </c>
       <c r="G157" t="n">
-        <v>323.313194186293</v>
+        <v>323.313839973072</v>
       </c>
       <c r="H157" t="n">
         <v>9700</v>
@@ -13154,7 +13154,7 @@
         <v>84</v>
       </c>
       <c r="G158" t="n">
-        <v>323.313194186293</v>
+        <v>323.313839973072</v>
       </c>
       <c r="H158" t="n">
         <v>9700</v>
@@ -13313,27 +13313,27 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00158</v>
+        <v>0.00156</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0022583595321662</v>
+        <v>0.0022411926044623</v>
       </c>
       <c r="H160" t="n">
         <v>0.0084189211824872</v>
       </c>
       <c r="I160" t="n">
-        <v>0.00633</v>
+        <v>0.00627</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="M160" t="n">
-        <v>0.00388</v>
+        <v>0.00384</v>
       </c>
       <c r="N160" t="n">
-        <v>0.00518</v>
+        <v>0.00512</v>
       </c>
       <c r="O160" t="n">
         <v>1785783</v>
@@ -13394,27 +13394,27 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00158</v>
+        <v>0.00156</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0022583595321662</v>
+        <v>0.0022411926044623</v>
       </c>
       <c r="H161" t="n">
         <v>0.0084189211824872</v>
       </c>
       <c r="I161" t="n">
-        <v>0.00633</v>
+        <v>0.00627</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="M161" t="n">
-        <v>0.00388</v>
+        <v>0.00384</v>
       </c>
       <c r="N161" t="n">
-        <v>0.00518</v>
+        <v>0.00512</v>
       </c>
       <c r="O161" t="n">
         <v>1785783</v>
@@ -13713,7 +13713,7 @@
         <v>0.31</v>
       </c>
       <c r="G165" t="n">
-        <v>0.380016666666667</v>
+        <v>0.380015</v>
       </c>
       <c r="H165" t="n">
         <v>0.955</v>
@@ -13790,7 +13790,7 @@
         <v>0.31</v>
       </c>
       <c r="G166" t="n">
-        <v>0.380016666666667</v>
+        <v>0.380015</v>
       </c>
       <c r="H166" t="n">
         <v>0.955</v>
@@ -14418,7 +14418,7 @@
         <v>0.007</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0132929674885813</v>
+        <v>0.0132936812003439</v>
       </c>
       <c r="H174" t="n">
         <v>0.33</v>
@@ -14499,7 +14499,7 @@
         <v>0.007</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0132929674885813</v>
+        <v>0.0132936812003439</v>
       </c>
       <c r="H175" t="n">
         <v>0.33</v>
@@ -14580,7 +14580,7 @@
         <v>79</v>
       </c>
       <c r="G176" t="n">
-        <v>312.911722901314</v>
+        <v>312.912379633632</v>
       </c>
       <c r="H176" t="n">
         <v>9700</v>
@@ -14665,7 +14665,7 @@
         <v>79</v>
       </c>
       <c r="G177" t="n">
-        <v>312.911722901314</v>
+        <v>312.912379633632</v>
       </c>
       <c r="H177" t="n">
         <v>9700</v>
@@ -14750,7 +14750,7 @@
         <v>79</v>
       </c>
       <c r="G178" t="n">
-        <v>312.911722901314</v>
+        <v>312.912379633632</v>
       </c>
       <c r="H178" t="n">
         <v>9700</v>
@@ -14835,7 +14835,7 @@
         <v>79</v>
       </c>
       <c r="G179" t="n">
-        <v>312.911722901314</v>
+        <v>312.912379633632</v>
       </c>
       <c r="H179" t="n">
         <v>9700</v>
@@ -14994,10 +14994,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00198</v>
+        <v>0.00196</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0035591138934809</v>
+        <v>0.0035418916066761</v>
       </c>
       <c r="H181" t="n">
         <v>0.0509668957111459</v>
@@ -15008,13 +15008,13 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00178</v>
+        <v>0.00177</v>
       </c>
       <c r="M181" t="n">
-        <v>0.00445</v>
+        <v>0.00444</v>
       </c>
       <c r="N181" t="n">
-        <v>0.00719</v>
+        <v>0.00711</v>
       </c>
       <c r="O181" t="n">
         <v>1785783</v>
@@ -15075,10 +15075,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00198</v>
+        <v>0.00196</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0035591138934809</v>
+        <v>0.0035418916066761</v>
       </c>
       <c r="H182" t="n">
         <v>0.0509668957111459</v>
@@ -15089,13 +15089,13 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00178</v>
+        <v>0.00177</v>
       </c>
       <c r="M182" t="n">
-        <v>0.00445</v>
+        <v>0.00444</v>
       </c>
       <c r="N182" t="n">
-        <v>0.00719</v>
+        <v>0.00711</v>
       </c>
       <c r="O182" t="n">
         <v>1785783</v>
@@ -15394,13 +15394,13 @@
         <v>0.305</v>
       </c>
       <c r="G186" t="n">
-        <v>0.374847457627119</v>
+        <v>0.374830508474576</v>
       </c>
       <c r="H186" t="n">
         <v>0.9350000000000001</v>
       </c>
       <c r="I186" t="n">
-        <v>0.8662</v>
+        <v>0.86597</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -15471,13 +15471,13 @@
         <v>0.305</v>
       </c>
       <c r="G187" t="n">
-        <v>0.374847457627119</v>
+        <v>0.374830508474576</v>
       </c>
       <c r="H187" t="n">
         <v>0.9350000000000001</v>
       </c>
       <c r="I187" t="n">
-        <v>0.8662</v>
+        <v>0.86597</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -16099,7 +16099,7 @@
         <v>0.007</v>
       </c>
       <c r="G195" t="n">
-        <v>0.012898019725974</v>
+        <v>0.0128983038109506</v>
       </c>
       <c r="H195" t="n">
         <v>0.33</v>
@@ -16180,7 +16180,7 @@
         <v>0.007</v>
       </c>
       <c r="G196" t="n">
-        <v>0.012898019725974</v>
+        <v>0.0128983038109506</v>
       </c>
       <c r="H196" t="n">
         <v>0.33</v>
@@ -16261,7 +16261,7 @@
         <v>79</v>
       </c>
       <c r="G197" t="n">
-        <v>157.894773748772</v>
+        <v>157.89543048109</v>
       </c>
       <c r="H197" t="n">
         <v>1700</v>
@@ -16346,7 +16346,7 @@
         <v>79</v>
       </c>
       <c r="G198" t="n">
-        <v>157.894773748772</v>
+        <v>157.89543048109</v>
       </c>
       <c r="H198" t="n">
         <v>1700</v>
@@ -16431,7 +16431,7 @@
         <v>79</v>
       </c>
       <c r="G199" t="n">
-        <v>157.894773748772</v>
+        <v>157.89543048109</v>
       </c>
       <c r="H199" t="n">
         <v>1700</v>
@@ -16516,7 +16516,7 @@
         <v>79</v>
       </c>
       <c r="G200" t="n">
-        <v>157.894773748772</v>
+        <v>157.89543048109</v>
       </c>
       <c r="H200" t="n">
         <v>1700</v>
@@ -16675,10 +16675,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.00271</v>
+        <v>0.00268</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0041051265571762</v>
+        <v>0.0040877052178863</v>
       </c>
       <c r="H202" t="n">
         <v>0.0509668957111459</v>
@@ -16689,13 +16689,13 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.00295</v>
+        <v>0.00293</v>
       </c>
       <c r="M202" t="n">
-        <v>0.0051</v>
+        <v>0.00509</v>
       </c>
       <c r="N202" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.00831</v>
       </c>
       <c r="O202" t="n">
         <v>1785783</v>
@@ -16756,10 +16756,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00271</v>
+        <v>0.00268</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0041051265571762</v>
+        <v>0.0040877052178863</v>
       </c>
       <c r="H203" t="n">
         <v>0.0509668957111459</v>
@@ -16770,13 +16770,13 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.00295</v>
+        <v>0.00293</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0051</v>
+        <v>0.00509</v>
       </c>
       <c r="N203" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.00831</v>
       </c>
       <c r="O203" t="n">
         <v>1785783</v>
@@ -17081,7 +17081,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="I207" t="n">
-        <v>0.8170500000000001</v>
+        <v>0.81678</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -17158,7 +17158,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="I208" t="n">
-        <v>0.8170500000000001</v>
+        <v>0.81678</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17780,7 +17780,7 @@
         <v>0.007</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0076782707827226</v>
+        <v>0.0076785700865372</v>
       </c>
       <c r="H216" t="n">
         <v>0.015</v>
@@ -17861,7 +17861,7 @@
         <v>0.007</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0076782707827226</v>
+        <v>0.0076785700865372</v>
       </c>
       <c r="H217" t="n">
         <v>0.015</v>
@@ -17942,7 +17942,7 @@
         <v>92</v>
       </c>
       <c r="G218" t="n">
-        <v>139.531993771028</v>
+        <v>139.532685685434</v>
       </c>
       <c r="H218" t="n">
         <v>913</v>
@@ -18027,7 +18027,7 @@
         <v>92</v>
       </c>
       <c r="G219" t="n">
-        <v>139.531993771028</v>
+        <v>139.532685685434</v>
       </c>
       <c r="H219" t="n">
         <v>913</v>
@@ -18112,7 +18112,7 @@
         <v>92</v>
       </c>
       <c r="G220" t="n">
-        <v>139.531993771028</v>
+        <v>139.532685685434</v>
       </c>
       <c r="H220" t="n">
         <v>913</v>
@@ -18197,7 +18197,7 @@
         <v>92</v>
       </c>
       <c r="G221" t="n">
-        <v>139.531993771028</v>
+        <v>139.532685685434</v>
       </c>
       <c r="H221" t="n">
         <v>913</v>
@@ -18356,10 +18356,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.00284</v>
+        <v>0.00281</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0042535403935006</v>
+        <v>0.0042374801323645</v>
       </c>
       <c r="H223" t="n">
         <v>0.0509668957111459</v>
@@ -18370,13 +18370,13 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>0.00314</v>
+        <v>0.00313</v>
       </c>
       <c r="M223" t="n">
         <v>0.00517</v>
       </c>
       <c r="N223" t="n">
-        <v>0.00783</v>
+        <v>0.00778</v>
       </c>
       <c r="O223" t="n">
         <v>1785783</v>
@@ -18437,10 +18437,10 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0.00284</v>
+        <v>0.00281</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0042535403935006</v>
+        <v>0.0042374801323645</v>
       </c>
       <c r="H224" t="n">
         <v>0.0509668957111459</v>
@@ -18451,13 +18451,13 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>0.00314</v>
+        <v>0.00313</v>
       </c>
       <c r="M224" t="n">
         <v>0.00517</v>
       </c>
       <c r="N224" t="n">
-        <v>0.00783</v>
+        <v>0.00778</v>
       </c>
       <c r="O224" t="n">
         <v>1785783</v>
@@ -19192,6 +19192,1687 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.41615</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>15.133679245283</v>
+      </c>
+      <c r="H235" t="n">
+        <v>65</v>
+      </c>
+      <c r="I235" t="n">
+        <v>53.425</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>6</v>
+      </c>
+      <c r="M235" t="n">
+        <v>29.705</v>
+      </c>
+      <c r="N235" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G236" t="n">
+        <v>3.02982647008026</v>
+      </c>
+      <c r="H236" t="n">
+        <v>6.48132350401276</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4.325</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.007894255122536799</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.007894255122536799</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>90</v>
+      </c>
+      <c r="G239" t="n">
+        <v>132.321428571429</v>
+      </c>
+      <c r="H239" t="n">
+        <v>913</v>
+      </c>
+      <c r="I239" t="n">
+        <v>470</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K239" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L239" t="n">
+        <v>104</v>
+      </c>
+      <c r="M239" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="N239" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>90</v>
+      </c>
+      <c r="G240" t="n">
+        <v>132.321428571429</v>
+      </c>
+      <c r="H240" t="n">
+        <v>913</v>
+      </c>
+      <c r="I240" t="n">
+        <v>470</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K240" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L240" t="n">
+        <v>104</v>
+      </c>
+      <c r="M240" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="N240" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>90</v>
+      </c>
+      <c r="G241" t="n">
+        <v>132.321428571429</v>
+      </c>
+      <c r="H241" t="n">
+        <v>913</v>
+      </c>
+      <c r="I241" t="n">
+        <v>470</v>
+      </c>
+      <c r="J241" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K241" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L241" t="n">
+        <v>104</v>
+      </c>
+      <c r="M241" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="N241" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>90</v>
+      </c>
+      <c r="G242" t="n">
+        <v>132.321428571429</v>
+      </c>
+      <c r="H242" t="n">
+        <v>913</v>
+      </c>
+      <c r="I242" t="n">
+        <v>470</v>
+      </c>
+      <c r="J242" t="n">
+        <v>3.57142857142857</v>
+      </c>
+      <c r="K242" t="n">
+        <v>8.928571428571431</v>
+      </c>
+      <c r="L242" t="n">
+        <v>104</v>
+      </c>
+      <c r="M242" t="n">
+        <v>191.96</v>
+      </c>
+      <c r="N242" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>102</v>
+      </c>
+      <c r="G243" t="n">
+        <v>103.296</v>
+      </c>
+      <c r="H243" t="n">
+        <v>108</v>
+      </c>
+      <c r="I243" t="n">
+        <v>108</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>102</v>
+      </c>
+      <c r="M243" t="n">
+        <v>107.4505</v>
+      </c>
+      <c r="N243" t="n">
+        <v>108</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.00273</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.0045147325224652</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.0509668957111459</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.01582</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.00326</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.00597</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.01037</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.00273</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.0045147325224652</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.0509668957111459</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.01582</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.00326</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.00597</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.01037</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.2885</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.342089285714286</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.7551</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.2025</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.7201</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.2885</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.342089285714286</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.7551</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.2025</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.7201</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4.4318</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M248" t="n">
+        <v>4.836</v>
+      </c>
+      <c r="N248" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.29425</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.351410714285714</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.8305</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.7648</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>0.2145</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.57304</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.72532</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P249" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.29425</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.351410714285714</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.8305</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.7648</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>0.2145</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.57304</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.72532</v>
+      </c>
+      <c r="O250" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P250" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.409821428571429</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.6296</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.7114</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P251" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.409821428571429</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.6296</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.7114</v>
+      </c>
+      <c r="O252" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P252" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.0151071428571429</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.01996</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.02404</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P253" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Ohau at Haines Property</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0151071428571429</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.01996</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.02404</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1785783</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5496186</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
+++ b/state_results/Rivers/OhauatHainesProperty_9d646addd9.xlsx
@@ -570,24 +570,24 @@
         <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>3.00132278772483</v>
+        <v>2.98325163052999</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>6.64179</v>
+        <v>8.4297</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.3291</v>
       </c>
       <c r="M2" t="n">
-        <v>5.55</v>
+        <v>4.775</v>
       </c>
       <c r="N2" t="n">
-        <v>6.29237</v>
+        <v>6.21</v>
       </c>
       <c r="O2" t="n">
         <v>1785783</v>
@@ -1469,24 +1469,24 @@
         <v>2.226</v>
       </c>
       <c r="G13" t="n">
-        <v>3.07364518301128</v>
+        <v>3.08303479171299</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>7.99065</v>
+        <v>9.063190000000001</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>2.6291</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>5.55</v>
       </c>
       <c r="N13" t="n">
-        <v>6.61138</v>
+        <v>7.98376</v>
       </c>
       <c r="O13" t="n">
         <v>1785783</v>
@@ -2368,24 +2368,24 @@
         <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.18274689448797</v>
+        <v>3.18060932082487</v>
       </c>
       <c r="H24" t="n">
         <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>7.16736</v>
+        <v>8.910360000000001</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>4.35</v>
+        <v>3.7291</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>5.99868</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4916</v>
+        <v>6.485</v>
       </c>
       <c r="O24" t="n">
         <v>1785783</v>
@@ -3429,24 +3429,24 @@
         <v>3.5</v>
       </c>
       <c r="G37" t="n">
-        <v>3.46647438117225</v>
+        <v>3.49657117840689</v>
       </c>
       <c r="H37" t="n">
         <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>6.69179</v>
+        <v>8.583959999999999</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="M37" t="n">
         <v>6</v>
       </c>
       <c r="N37" t="n">
-        <v>6.42443</v>
+        <v>6.6334</v>
       </c>
       <c r="O37" t="n">
         <v>1785783</v>
@@ -4798,24 +4798,24 @@
         <v>4.5</v>
       </c>
       <c r="G54" t="n">
-        <v>4.1203111933008</v>
+        <v>4.43546772298795</v>
       </c>
       <c r="H54" t="n">
-        <v>9.142780103915729</v>
+        <v>19.7269990716129</v>
       </c>
       <c r="I54" t="n">
-        <v>8.31545</v>
+        <v>9.50426</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="M54" t="n">
-        <v>6.46972</v>
+        <v>6.50346</v>
       </c>
       <c r="N54" t="n">
-        <v>7.72108</v>
+        <v>8.91342</v>
       </c>
       <c r="O54" t="n">
         <v>1785783</v>
@@ -6167,13 +6167,13 @@
         <v>5.5</v>
       </c>
       <c r="G71" t="n">
-        <v>5.13892391349147</v>
+        <v>5.48563964499623</v>
       </c>
       <c r="H71" t="n">
-        <v>11</v>
+        <v>19.7269990716129</v>
       </c>
       <c r="I71" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6181,10 +6181,10 @@
         <v>6.175</v>
       </c>
       <c r="M71" t="n">
-        <v>8.4023</v>
+        <v>9.4</v>
       </c>
       <c r="N71" t="n">
-        <v>10.1</v>
+        <v>10.40615</v>
       </c>
       <c r="O71" t="n">
         <v>1785783</v>
@@ -7613,13 +7613,13 @@
         <v>5.15</v>
       </c>
       <c r="G89" t="n">
-        <v>5.12449823679095</v>
+        <v>5.45199143216813</v>
       </c>
       <c r="H89" t="n">
-        <v>11</v>
+        <v>19.7269990716129</v>
       </c>
       <c r="I89" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7627,10 +7627,10 @@
         <v>5.8</v>
       </c>
       <c r="M89" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="N89" t="n">
-        <v>10.1</v>
+        <v>10.40615</v>
       </c>
       <c r="O89" t="n">
         <v>1785783</v>
@@ -9294,13 +9294,13 @@
         <v>4.375</v>
       </c>
       <c r="G110" t="n">
-        <v>4.77597765985967</v>
+        <v>5.11196739762484</v>
       </c>
       <c r="H110" t="n">
-        <v>11</v>
+        <v>19.7269990716129</v>
       </c>
       <c r="I110" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9308,10 +9308,10 @@
         <v>4.75</v>
       </c>
       <c r="M110" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="N110" t="n">
-        <v>10.1</v>
+        <v>10.40615</v>
       </c>
       <c r="O110" t="n">
         <v>1785783</v>
@@ -10975,13 +10975,13 @@
         <v>3.6</v>
       </c>
       <c r="G131" t="n">
-        <v>4.48858465923978</v>
+        <v>4.77796874049965</v>
       </c>
       <c r="H131" t="n">
-        <v>11</v>
+        <v>19.7269990716129</v>
       </c>
       <c r="I131" t="n">
-        <v>10.19</v>
+        <v>10.78123</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -10989,10 +10989,10 @@
         <v>4.185</v>
       </c>
       <c r="M131" t="n">
-        <v>8.532</v>
+        <v>9.13334</v>
       </c>
       <c r="N131" t="n">
-        <v>10.1</v>
+        <v>10.34018</v>
       </c>
       <c r="O131" t="n">
         <v>1785783</v>
@@ -19380,10 +19380,10 @@
         <v>3.01</v>
       </c>
       <c r="G236" t="n">
-        <v>3.02982647008026</v>
+        <v>3.0371873934662</v>
       </c>
       <c r="H236" t="n">
-        <v>6.48132350401276</v>
+        <v>6.8493696733098</v>
       </c>
       <c r="I236" t="n">
         <v>4.8</v>
